--- a/App_Ventas/App_Ventas/Recursos/Plantillas/Plantilla_Producto.xlsx
+++ b/App_Ventas/App_Ventas/Recursos/Plantillas/Plantilla_Producto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\OneDrive\Documentos\GitHub\APP_VENTAS\App_Ventas\App_Ventas\Recursos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="ListaProducto" sheetId="1" r:id="rId1"/>
     <sheet name="ListaUnidadMedida" sheetId="2" r:id="rId2"/>
+    <sheet name="Leyenda" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="105">
   <si>
     <t>COD_PRODUCTO</t>
   </si>
@@ -48,9 +49,6 @@
     <t>STOCK_MINIMO</t>
   </si>
   <si>
-    <t>FLG_SERIVICIO</t>
-  </si>
-  <si>
     <t>FECHA_VENCIMIENTO</t>
   </si>
   <si>
@@ -63,9 +61,6 @@
     <t>DETALLE</t>
   </si>
   <si>
-    <t>FLG_VENCE</t>
-  </si>
-  <si>
     <t>ID_CATEGORIA</t>
   </si>
   <si>
@@ -274,6 +269,78 @@
   </si>
   <si>
     <t>CÓDIGO UNIDAD MEDIDA</t>
+  </si>
+  <si>
+    <t>FLG_SERVICIO</t>
+  </si>
+  <si>
+    <t>NOMBRE_CAMPO</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>EJEMPLO</t>
+  </si>
+  <si>
+    <t>STOCK MINIMO</t>
+  </si>
+  <si>
+    <t>Código unico del producto</t>
+  </si>
+  <si>
+    <t>Descripción del producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código de categoria registrado en el modulo de categorias del sistema </t>
+  </si>
+  <si>
+    <t>Precio compra del producto incluido igv</t>
+  </si>
+  <si>
+    <t>Precio venta del producto incluido igv</t>
+  </si>
+  <si>
+    <t>stock inicial</t>
+  </si>
+  <si>
+    <t>sotck minimo</t>
+  </si>
+  <si>
+    <t>fecha vencimiento del producto</t>
+  </si>
+  <si>
+    <t>Modelo del producto</t>
+  </si>
+  <si>
+    <t>Detalle del producto</t>
+  </si>
+  <si>
+    <t>Marca del producto</t>
+  </si>
+  <si>
+    <t>¿es servicio o producto?,  1 si es servicio , 0 si es producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F7750670012218</t>
+  </si>
+  <si>
+    <t>VOLT AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bebida energizante </t>
+  </si>
+  <si>
+    <t>OBLIGATORIO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Código unidad de medida en la hoja 2 toda la informacíón de los códigos</t>
   </si>
 </sst>
 </file>
@@ -322,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +401,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,67 +694,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="7" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="18" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="9" width="17.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="6" customWidth="1"/>
+    <col min="11" max="13" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +765,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -714,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -730,10 +807,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -746,10 +823,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -762,10 +839,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -778,10 +855,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -794,10 +871,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -810,10 +887,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -826,10 +903,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -842,10 +919,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -858,10 +935,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -874,10 +951,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -890,10 +967,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -906,10 +983,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -922,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -938,10 +1015,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -954,10 +1031,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -970,10 +1047,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -986,10 +1063,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1002,10 +1079,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1018,10 +1095,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1034,10 +1111,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1050,10 +1127,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1066,10 +1143,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1082,10 +1159,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1098,10 +1175,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1114,10 +1191,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1130,10 +1207,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1146,10 +1223,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1162,10 +1239,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1178,10 +1255,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1194,10 +1271,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1210,10 +1287,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1226,10 +1303,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1242,10 +1319,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1258,10 +1335,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1274,10 +1351,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1290,10 +1367,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1306,10 +1383,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1322,10 +1399,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1338,10 +1415,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1354,10 +1431,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1370,10 +1447,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1386,10 +1463,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1402,10 +1479,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1418,10 +1495,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1434,10 +1511,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1450,10 +1527,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1466,10 +1543,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1482,10 +1559,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1498,10 +1575,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1514,10 +1591,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1530,10 +1607,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1546,10 +1623,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1562,10 +1639,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1578,10 +1655,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -1594,10 +1671,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1610,10 +1687,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1626,10 +1703,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1642,10 +1719,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1658,10 +1735,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -1674,10 +1751,10 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1690,10 +1767,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1706,10 +1783,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -1720,4 +1797,218 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="9">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/App_Ventas/App_Ventas/Recursos/Plantillas/Plantilla_Producto.xlsx
+++ b/App_Ventas/App_Ventas/Recursos/Plantillas/Plantilla_Producto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ListaProducto" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +358,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,6 +422,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1824,7 @@
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>82</v>
       </c>
@@ -1829,7 +1838,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1852,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1857,7 +1866,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1871,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1882,10 +1891,10 @@
         <v>102</v>
       </c>
       <c r="D5" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1896,10 +1905,10 @@
         <v>102</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1913,7 +1922,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1927,7 +1936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1955,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +1990,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1993,7 +2002,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2006,6 +2015,10 @@
       <c r="D14" s="8" t="s">
         <v>100</v>
       </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
